--- a/biology/Zoologie/Drungena_haban/Drungena_haban.xlsx
+++ b/biology/Zoologie/Drungena_haban/Drungena_haban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drungena haban est une espèce d'araignées aranéomorphes de la famille des Mysmenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drungena haban est une espèce d'araignées aranéomorphes de la famille des Mysmenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine[1],[2]. Elle se rencontre dans le xian de Gongshan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine,. Elle se rencontre dans le xian de Gongshan.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 0,75 mm[3].
-Le mâle décrit par Zhang, Li, Lin, Li, Yao et Zhang en 2023 mesure 0,64 mm et la femelle 1,08 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 0,75 mm.
+Le mâle décrit par Zhang, Li, Lin, Li, Yao et Zhang en 2023 mesure 0,64 mm et la femelle 1,08 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mysmena haban par Miller, Griswold et Yin en 2009. Elle est placée dans le genre Drungena par Zhang, Li, Lin, Li, Yao et Zhang en 2023[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mysmena haban par Miller, Griswold et Yin en 2009. Elle est placée dans le genre Drungena par Zhang, Li, Lin, Li, Yao et Zhang en 2023.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les chutes Haban.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Miller, Griswold &amp; Yin, 2009 : « The symphytognathoid spiders of the Gaoligongshan, Yunnan, China (Araneae, Araneoidea): Systematics and diversity of micro-orbweavers. » ZooKeys, no 11, p. 9-195 (texte intégral).</t>
         </is>
